--- a/biology/Zoologie/Alburnus_filippii/Alburnus_filippii.xlsx
+++ b/biology/Zoologie/Alburnus_filippii/Alburnus_filippii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus filippii (en anglais Kura bleak[2]) est un poisson d'eau douce de la famille des Cyprinidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus filippii (en anglais Kura bleak) est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus filippii se rencontre dans le bassins de la Caspienne, depuis la Koura jusqu'à la Sefid Roud en Iran et ce depuis les cours supérieurs de Turquie, d'Arménie et d'Iran jusqu'à 3 000 m d'altitude[2]. On suppose que les populations lacustres remontent les cours d'eau pour s'y reproduire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus filippii se rencontre dans le bassins de la Caspienne, depuis la Koura jusqu'à la Sefid Roud en Iran et ce depuis les cours supérieurs de Turquie, d'Arménie et d'Iran jusqu'à 3 000 m d'altitude. On suppose que les populations lacustres remontent les cours d'eau pour s'y reproduire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus filippii est de 160 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus filippii est de 160 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kessler, 1877 : The Aralo-Caspian Expedition. IV. Fishes of the Aralo-Caspio-Pontine ichthyological region p. 1-360.</t>
         </is>
